--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3203032.042058024</v>
+        <v>3299702.018542399</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>187.9750596727947</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>307.7743159237151</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>113.5079843357165</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>174.8813118982898</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>37.63609173734485</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>237.4552014283703</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.8794763036715</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>182.3603339273699</v>
+        <v>250.1325537001773</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>99.88088673627539</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1424,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5645601026382</v>
+        <v>97.5444888445078</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534542</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1658,10 +1660,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>163.689844124971</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>183.3195866320863</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2005,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>85.64441364470541</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>172.9374948395652</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>114.4746605491552</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>243.7139868647107</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>129.1721819464391</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>120.635366662023</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991714</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>69.47701190411318</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>1.84982705059515</v>
       </c>
       <c r="T31" t="n">
-        <v>168.4779651024645</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3241,13 +3243,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>108.0046783815788</v>
+        <v>247.5469201765825</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3320,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3427,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>115.6950956495052</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>71.61148690776574</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3521,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3559,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.74868616823376</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>116.8192342874272</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653454</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>108.5332252698043</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3952,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>87.22506181228437</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>203.6597537114136</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1507.652482896327</v>
+        <v>1902.75190621448</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.778685247039</v>
+        <v>1533.789389274068</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1175.523690667317</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>789.7354380690731</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>378.7495332794655</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>364.8261292180565</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,7 +4333,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4340,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>1507.652482896327</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y2" t="n">
-        <v>1507.652482896327</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2453.443748690007</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C4" t="n">
-        <v>2284.5075657621</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D4" t="n">
-        <v>2284.5075657621</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>2284.5075657621</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>2137.61761826419</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>2137.61761826419</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2453.443748690007</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>2453.443748690007</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>2453.443748690007</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>2453.443748690007</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>2453.443748690007</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>2453.443748690007</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>2453.443748690007</v>
+        <v>551.4811944101821</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1714.263756178945</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1345.301239238533</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2440.498169710139</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2087.729514440025</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1714.263756178945</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y5" t="n">
-        <v>1714.263756178945</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.9687959810048</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9687959810048</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9687959810048</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810048</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810048</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810048</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810048</v>
+        <v>597.8222804779598</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810048</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.9687959810048</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5020,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5042,19 +5044,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2883.993034926781</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3763.957685256236</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
         <v>4470.748294107237</v>
@@ -5072,13 +5074,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089898</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5139,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,7 +5150,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5157,7 +5159,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.0874507179534</v>
+        <v>488.8938622403219</v>
       </c>
       <c r="C13" t="n">
-        <v>552.1512677900465</v>
+        <v>488.8938622403219</v>
       </c>
       <c r="D13" t="n">
-        <v>552.1512677900465</v>
+        <v>488.8938622403219</v>
       </c>
       <c r="E13" t="n">
-        <v>404.2381742076534</v>
+        <v>340.9807686579288</v>
       </c>
       <c r="F13" t="n">
-        <v>404.2381742076534</v>
+        <v>194.0908211600185</v>
       </c>
       <c r="G13" t="n">
-        <v>236.5353375823724</v>
+        <v>194.0908211600185</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1674.827124689058</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1420.142636483171</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1130.72546644621</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>902.7359155481931</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y13" t="n">
-        <v>902.7359155481931</v>
+        <v>488.8938622403219</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551628</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5282,19 +5284,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M14" t="n">
-        <v>2536.15366264131</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N14" t="n">
-        <v>3515.905934867957</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O14" t="n">
-        <v>4018.878405747294</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5306,22 +5308,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5361,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5373,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>411.1769646560685</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1769646560685</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D16" t="n">
-        <v>411.1769646560685</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5467,19 +5469,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1357.719666872686</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1103.035178666799</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>813.6180086298384</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>813.6180086298384</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>592.8254294863083</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1014.851249206415</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L17" t="n">
-        <v>1465.885462454824</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M17" t="n">
-        <v>1999.417367126749</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5546,19 +5548,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>264.4972173763014</v>
+        <v>815.043388928086</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>646.1072060001791</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>495.9905665878433</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1500.142786467275</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U19" t="n">
-        <v>1211.039919592919</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>956.3554313870318</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W19" t="n">
-        <v>666.9382613500712</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="X19" t="n">
-        <v>666.9382613500712</v>
+        <v>1217.484432901856</v>
       </c>
       <c r="Y19" t="n">
-        <v>446.1456822065411</v>
+        <v>996.6918537583257</v>
       </c>
     </row>
     <row r="20">
@@ -5765,31 +5767,31 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3944.053400686433</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4338.827767043611</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>2980.089005086362</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3550.914897226846</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="C22" t="n">
-        <v>3381.978714298939</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="D22" t="n">
-        <v>3231.862074886603</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="E22" t="n">
-        <v>3231.862074886603</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="F22" t="n">
-        <v>3084.972127388693</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="G22" t="n">
         <v>2917.269290763412</v>
@@ -5932,28 +5934,28 @@
         <v>4778.051722419721</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.051722419721</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S22" t="n">
-        <v>4778.051722419721</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T22" t="n">
-        <v>4778.051722419721</v>
+        <v>4380.904410752403</v>
       </c>
       <c r="U22" t="n">
-        <v>4488.948855545364</v>
+        <v>4091.801543878047</v>
       </c>
       <c r="V22" t="n">
-        <v>4242.773111237576</v>
+        <v>3837.11705567216</v>
       </c>
       <c r="W22" t="n">
-        <v>3953.355941200616</v>
+        <v>3547.699885635199</v>
       </c>
       <c r="X22" t="n">
-        <v>3953.355941200616</v>
+        <v>3319.710334737182</v>
       </c>
       <c r="Y22" t="n">
-        <v>3732.563362057086</v>
+        <v>3098.917755593652</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -5999,40 +6001,40 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3008.107474639232</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3511.079945518569</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6099,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>561.5038042865474</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="C25" t="n">
-        <v>392.5676213586405</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="D25" t="n">
-        <v>242.4509819463048</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="T25" t="n">
-        <v>1866.513008862232</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="U25" t="n">
-        <v>1736.036057401182</v>
+        <v>3985.665898699243</v>
       </c>
       <c r="V25" t="n">
-        <v>1481.351569195295</v>
+        <v>3730.981410493357</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.934399158335</v>
+        <v>3441.564240456396</v>
       </c>
       <c r="X25" t="n">
-        <v>963.9448482603173</v>
+        <v>3319.710334737181</v>
       </c>
       <c r="Y25" t="n">
-        <v>743.1522691167871</v>
+        <v>3098.917755593651</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6214,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,19 +6226,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2628.734306600803</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>654.7198286198654</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C28" t="n">
-        <v>654.7198286198654</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D28" t="n">
-        <v>654.7198286198654</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E28" t="n">
-        <v>506.8067350374723</v>
+        <v>314.8452970674332</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>167.9553495695228</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6406,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.746393431758</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1574.567593528613</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V28" t="n">
-        <v>1574.567593528613</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W28" t="n">
-        <v>1285.150423491653</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X28" t="n">
-        <v>1057.160872593635</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y28" t="n">
-        <v>836.3682934501052</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2439.038619608515</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2985.817436667297</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3865.782086996752</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6546,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,16 +6560,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>540.4807149410336</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="C31" t="n">
-        <v>540.4807149410336</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6643,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1864.644496689913</v>
       </c>
       <c r="T31" t="n">
-        <v>1594.477819201768</v>
+        <v>1642.87788125944</v>
       </c>
       <c r="U31" t="n">
-        <v>1305.374952327411</v>
+        <v>1353.775014385083</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.690464121524</v>
+        <v>1353.775014385083</v>
       </c>
       <c r="W31" t="n">
-        <v>761.2732940845638</v>
+        <v>1064.357844348122</v>
       </c>
       <c r="X31" t="n">
-        <v>761.2732940845638</v>
+        <v>836.3682934501052</v>
       </c>
       <c r="Y31" t="n">
-        <v>540.4807149410336</v>
+        <v>836.3682934501052</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6701,16 +6703,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2782.232616025903</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>3329.011433084685</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086362</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>679.6423705955727</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="C34" t="n">
-        <v>510.7061876676659</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D34" t="n">
-        <v>360.5895482553301</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E34" t="n">
-        <v>360.5895482553301</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F34" t="n">
-        <v>360.5895482553301</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
         <v>192.8867116300491</v>
@@ -6880,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1343.964874529717</v>
+        <v>1292.843572383296</v>
       </c>
       <c r="V34" t="n">
-        <v>1089.28038632383</v>
+        <v>1038.159084177409</v>
       </c>
       <c r="W34" t="n">
-        <v>1089.28038632383</v>
+        <v>748.7419141404483</v>
       </c>
       <c r="X34" t="n">
-        <v>861.2908354258125</v>
+        <v>520.752363242431</v>
       </c>
       <c r="Y34" t="n">
-        <v>861.2908354258125</v>
+        <v>520.752363242431</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6923,10 +6925,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,25 +6937,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1236.699401366028</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M35" t="n">
-        <v>2215.249704195857</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N35" t="n">
-        <v>3195.001976422504</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O35" t="n">
-        <v>3697.97444730184</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
         <v>4719.034655862919</v>
@@ -6962,25 +6964,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>464.90245661901</v>
+        <v>623.6704680167705</v>
       </c>
       <c r="C37" t="n">
-        <v>464.90245661901</v>
+        <v>623.6704680167705</v>
       </c>
       <c r="D37" t="n">
-        <v>314.7858172066742</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E37" t="n">
-        <v>314.7858172066742</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F37" t="n">
-        <v>167.8958697087639</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>167.8958697087639</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7120,25 +7122,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V37" t="n">
-        <v>1163.957642384228</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W37" t="n">
-        <v>874.540472347267</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X37" t="n">
-        <v>646.5509214492497</v>
+        <v>805.3189328470103</v>
       </c>
       <c r="Y37" t="n">
-        <v>646.5509214492497</v>
+        <v>805.3189328470103</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7153,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7178,19 +7180,19 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1586.925993846824</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2120.457898518748</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N38" t="n">
-        <v>2667.236715577531</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
         <v>4719.034655862919</v>
@@ -7205,13 +7207,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>529.525731183237</v>
+        <v>333.9403347179516</v>
       </c>
       <c r="C40" t="n">
-        <v>360.5895482553301</v>
+        <v>165.0041517900447</v>
       </c>
       <c r="D40" t="n">
-        <v>360.5895482553301</v>
+        <v>165.0041517900447</v>
       </c>
       <c r="E40" t="n">
-        <v>360.5895482553301</v>
+        <v>165.0041517900447</v>
       </c>
       <c r="F40" t="n">
-        <v>360.5895482553301</v>
+        <v>165.0041517900447</v>
       </c>
       <c r="G40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7354,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1556.827898136101</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1267.725031261745</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1267.725031261745</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W40" t="n">
-        <v>978.3078612247845</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X40" t="n">
-        <v>750.3183103267671</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y40" t="n">
-        <v>529.525731183237</v>
+        <v>515.5887995481913</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1404.507041060941</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M41" t="n">
-        <v>2383.057343890769</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>3362.809616117416</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7442,19 +7444,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>499.3208352874796</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>499.3208352874796</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>499.3208352874796</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>351.4077417050864</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7591,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1453.060509258584</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1198.376021052697</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>908.9588510157366</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>680.9693001177193</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>680.9693001177193</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
         <v>1646.988141143014</v>
@@ -7646,46 +7648,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2209.609207880054</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>3189.361480106701</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7701,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
         <v>487.9678785494859</v>
@@ -7716,7 +7718,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7728,10 +7730,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>264.4972173763014</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E46" t="n">
         <v>95.56103444839442</v>
@@ -7828,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1439.029470490936</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1184.344982285049</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>894.9278122480886</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>666.9382613500712</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>446.1456822065411</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8692,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8930,22 +8932,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>410.4190035206666</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>57.6722444472374</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>231.5010718068643</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9179,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9413,13 +9415,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>133.253057640026</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9647,19 +9649,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>292.568571519122</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9884,10 +9886,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>20.70318561718932</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10112,25 +10114,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>102.8529310510263</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,19 +10351,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>246.454569480845</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>169.5026663584974</v>
+        <v>315.167921710932</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10826,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>198.7154374299952</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10838,10 +10840,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>315.167921710932</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>338.5992815305711</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>119.6706498956045</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>5.190454811682628</v>
+        <v>47.21052606981299</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.335964134057178</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>102.8922515735266</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>60.78954900186376</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>46.61145443660399</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>105.074288727014</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>8.423656459117325</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24412,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>157.0396562591738</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>94.35543628911108</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>216.7348263014997</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>187.9191982808468</v>
       </c>
       <c r="T31" t="n">
-        <v>51.07098417370466</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>178.2071598240341</v>
+        <v>38.66491802903033</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>32.92037736870712</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>73.14352800655504</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.27712209079446</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>102.729714988742</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>36.88782275312695</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>92.60691836965293</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.55208449419925</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>715719.8211196323</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>715719.8211196325</v>
+        <v>715719.8211196326</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>715719.8211196325</v>
+        <v>715719.8211196326</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>715719.8211196326</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>715719.8211196326</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>715719.8211196326</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
     <row r="15">
@@ -26314,10 +26316,10 @@
         <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312475</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
         <v>694893.1270522206</v>
@@ -26326,34 +26328,34 @@
         <v>694893.1270522206</v>
       </c>
       <c r="G2" t="n">
+        <v>694893.1270522204</v>
+      </c>
+      <c r="H2" t="n">
+        <v>694893.1270522204</v>
+      </c>
+      <c r="I2" t="n">
         <v>694893.1270522206</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>694893.1270522206</v>
       </c>
-      <c r="I2" t="n">
-        <v>694893.1270522205</v>
-      </c>
-      <c r="J2" t="n">
-        <v>694893.1270522207</v>
-      </c>
       <c r="K2" t="n">
-        <v>694893.1270522205</v>
+        <v>694893.1270522209</v>
       </c>
       <c r="L2" t="n">
         <v>694893.1270522206</v>
       </c>
       <c r="M2" t="n">
-        <v>694893.1270522204</v>
+        <v>694893.1270522207</v>
       </c>
       <c r="N2" t="n">
         <v>694893.1270522206</v>
       </c>
       <c r="O2" t="n">
-        <v>694893.1270522205</v>
+        <v>694893.1270522206</v>
       </c>
       <c r="P2" t="n">
-        <v>694893.1270522205</v>
+        <v>694893.1270522203</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
+        <v>192206.5963924297</v>
+      </c>
+      <c r="D4" t="n">
         <v>192206.5963924298</v>
       </c>
-      <c r="D4" t="n">
-        <v>192206.5963924297</v>
-      </c>
       <c r="E4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
@@ -26442,7 +26444,7 @@
         <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709188</v>
@@ -26454,7 +26456,7 @@
         <v>21619.60799709188</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
         <v>21619.60799709187</v>
@@ -26488,13 +26490,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146622.0050391355</v>
+        <v>-146622.0050391357</v>
       </c>
       <c r="C6" t="n">
-        <v>443345.8741754089</v>
+        <v>443345.8741754085</v>
       </c>
       <c r="D6" t="n">
-        <v>443345.8741754083</v>
+        <v>443345.8741754086</v>
       </c>
       <c r="E6" t="n">
         <v>-150487.4131919916</v>
@@ -26534,34 +26536,34 @@
         <v>576890.0008014152</v>
       </c>
       <c r="G6" t="n">
+        <v>576890.0008014149</v>
+      </c>
+      <c r="H6" t="n">
+        <v>576890.0008014149</v>
+      </c>
+      <c r="I6" t="n">
         <v>576890.0008014152</v>
       </c>
-      <c r="H6" t="n">
-        <v>576890.0008014152</v>
-      </c>
-      <c r="I6" t="n">
-        <v>576890.0008014151</v>
-      </c>
       <c r="J6" t="n">
-        <v>400466.7816088224</v>
+        <v>400466.7816088222</v>
       </c>
       <c r="K6" t="n">
-        <v>576890.0008014151</v>
+        <v>576890.0008014154</v>
       </c>
       <c r="L6" t="n">
         <v>576890.0008014152</v>
       </c>
       <c r="M6" t="n">
-        <v>447247.6859624701</v>
+        <v>447247.6859624704</v>
       </c>
       <c r="N6" t="n">
         <v>576890.0008014152</v>
       </c>
       <c r="O6" t="n">
-        <v>576890.0008014151</v>
+        <v>576890.0008014152</v>
       </c>
       <c r="P6" t="n">
-        <v>576890.0008014151</v>
+        <v>576890.0008014148</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>177.2978320982129</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>16.14845684064204</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>42.66290450607865</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>43.70334145380497</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>290.1161667327901</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>132.2758992500987</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.95250387826584</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>200.3735077361107</v>
+        <v>132.6012879633033</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,13 +28019,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>91.9584066275352</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>186.6421116003156</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31859,7 +31861,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -32321,7 +32323,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33278,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33752,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33989,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34217,7 +34219,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
-        <v>713.9299079303039</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
@@ -35507,7 +35509,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,22 +35652,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>866.0091179129988</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>456.4342306666093</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>568.6923583622648</v>
+        <v>404.727924322443</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
@@ -35899,10 +35901,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35969,7 +35971,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36133,13 +36135,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>384.0473624437454</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36367,19 +36369,19 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>691.3305577384939</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36604,10 +36606,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>573.0050210301008</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36832,25 +36834,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>641.7740468812531</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36926,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37069,19 +37071,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>754.5075703690641</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>568.2646525778692</v>
+        <v>713.9299079303039</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37400,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37546,7 +37548,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>654.3055518223274</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37558,10 +37560,10 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>713.9299079303039</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37637,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>794.1893959229033</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37867,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>658.5917657258312</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3299702.018542399</v>
+        <v>3293980.406574513</v>
       </c>
     </row>
     <row r="7">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7743159237151</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>83.85112090809152</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>70.80276983270103</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>174.8813118982898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>283.7800869700859</v>
       </c>
       <c r="X5" t="n">
-        <v>237.4552014283703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>248.0596779397532</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>250.1325537001773</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>146.2793225814618</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>99.88088673627539</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>14.5430676348693</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>97.5444888445078</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>85.64441364470541</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2061,10 +2061,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>75.31209344666294</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>114.4746605491552</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>102.4908346647291</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>120.635366662023</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292511</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>71.67037196991714</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>203.4068132192022</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>90.41948680756549</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.84982705059515</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,7 +3009,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>247.5469201765825</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873211</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>115.6950956495052</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3556,10 +3556,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>17.25588147840188</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.74868616823376</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.921725653454</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292591</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>163.689844124971</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.22506181228437</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>261.3530920994916</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1902.75190621448</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C2" t="n">
-        <v>1533.789389274068</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D2" t="n">
-        <v>1175.523690667317</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E2" t="n">
-        <v>789.7354380690731</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F2" t="n">
-        <v>378.7495332794655</v>
+        <v>152.5644878091387</v>
       </c>
       <c r="G2" t="n">
-        <v>364.8261292180565</v>
+        <v>138.6410837477296</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>138.6410837477296</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2289.351746278601</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2289.351746278601</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>551.4811944101821</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.692722656504</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.01781586839</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.01781586839</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.8327295799424</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8327295799424</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>597.8222804779598</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5074,13 +5074,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089898</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,7 +5150,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5159,7 +5159,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>488.8938622403219</v>
+        <v>727.0030950818858</v>
       </c>
       <c r="C13" t="n">
-        <v>488.8938622403219</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D13" t="n">
-        <v>488.8938622403219</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E13" t="n">
-        <v>340.9807686579288</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>194.0908211600185</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>194.0908211600185</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X13" t="n">
-        <v>709.6864413838521</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y13" t="n">
-        <v>488.8938622403219</v>
+        <v>741.6930623898346</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5281,25 +5281,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1963.918173296941</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M14" t="n">
-        <v>2497.450077968866</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N14" t="n">
-        <v>3044.228895027648</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5308,16 +5308,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423046</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,40 +5500,40 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>685.1208104866384</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1549.639626139993</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.189928969822</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N17" t="n">
-        <v>3507.942201196468</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5542,25 +5542,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>815.043388928086</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>646.1072060001791</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>495.9905665878433</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1445.473983799873</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1445.473983799873</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>1217.484432901856</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>996.6918537583257</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5770,28 +5770,28 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,34 +5849,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2917.269290763412</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="C22" t="n">
-        <v>2917.269290763412</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="D22" t="n">
-        <v>2917.269290763412</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="E22" t="n">
-        <v>2917.269290763412</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763412</v>
+        <v>436.662369918626</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763412</v>
+        <v>268.959533293345</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763412</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004075</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T22" t="n">
-        <v>4380.904410752403</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U22" t="n">
-        <v>4091.801543878047</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V22" t="n">
-        <v>3837.11705567216</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W22" t="n">
-        <v>3547.699885635199</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X22" t="n">
-        <v>3319.710334737182</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y22" t="n">
-        <v>3098.917755593652</v>
+        <v>583.5523174165364</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551604</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -6016,25 +6016,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320242</v>
@@ -6086,16 +6086,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2917.269290763411</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C25" t="n">
-        <v>2917.269290763411</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D25" t="n">
-        <v>2917.269290763411</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E25" t="n">
-        <v>2917.269290763411</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>2917.269290763411</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763411</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>4496.535381004074</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>4274.7687655736</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U25" t="n">
-        <v>3985.665898699243</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V25" t="n">
-        <v>3730.981410493357</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W25" t="n">
-        <v>3441.564240456396</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X25" t="n">
-        <v>3319.710334737181</v>
+        <v>902.7359155481931</v>
       </c>
       <c r="Y25" t="n">
-        <v>3098.917755593651</v>
+        <v>681.943336404663</v>
       </c>
     </row>
     <row r="26">
@@ -6205,49 +6205,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551606</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.141533600157</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089242</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6320,10 +6320,10 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>781.811212990069</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>612.8750300621621</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>462.7583906498263</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>314.8452970674332</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>167.9553495695228</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839441</v>
@@ -6384,10 +6384,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1956.343466104704</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1701.658977898817</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1412.241807861856</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>1184.252256963839</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>963.4596778203087</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6457,34 +6457,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6560,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>654.7198286198654</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C31" t="n">
-        <v>654.7198286198654</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D31" t="n">
-        <v>654.7198286198654</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>506.8067350374723</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1864.644496689913</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1642.87788125944</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1353.775014385083</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1353.775014385083</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>1064.357844348122</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>836.3682934501052</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>836.3682934501052</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6706,31 +6706,31 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>339.1038984121913</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C34" t="n">
-        <v>339.1038984121913</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D34" t="n">
-        <v>339.1038984121913</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E34" t="n">
-        <v>339.1038984121913</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>1292.843572383296</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V34" t="n">
-        <v>1038.159084177409</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W34" t="n">
-        <v>748.7419141404483</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X34" t="n">
-        <v>520.752363242431</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y34" t="n">
-        <v>520.752363242431</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6937,52 +6937,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2883.993034926781</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3763.957685256236</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>623.6704680167705</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>623.6704680167705</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1866.513008862232</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1577.410141987875</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.725653781988</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1033.308483745028</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>805.3189328470103</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>805.3189328470103</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7177,25 +7177,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196074</v>
+        <v>1172.647446689875</v>
       </c>
       <c r="M38" t="n">
-        <v>2337.214217867999</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N38" t="n">
-        <v>2883.993034926781</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O38" t="n">
-        <v>3763.957685256236</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7204,7 +7204,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>333.9403347179516</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C40" t="n">
-        <v>165.0041517900447</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D40" t="n">
-        <v>165.0041517900447</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E40" t="n">
-        <v>165.0041517900447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>165.0041517900447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
         <v>95.56103444839442</v>
@@ -7368,16 +7368,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1253.788099626699</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>964.3709295897388</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>736.3813786917215</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>515.5887995481913</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7508,22 +7508,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,19 +7584,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T43" t="n">
         <v>1542.890966501056</v>
@@ -7605,16 +7605,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423046</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7666,13 +7666,13 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946815</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7727,13 +7727,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>393.5907674431232</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C46" t="n">
-        <v>393.5907674431232</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D46" t="n">
-        <v>243.4741280307875</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7839,19 +7839,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1278.897944178337</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>1024.21345597245</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>734.7962859354897</v>
       </c>
       <c r="X46" t="n">
-        <v>481.6968904858347</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y46" t="n">
-        <v>481.6968904858347</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>410.4190035206666</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>67.53663776704252</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>315.167921710932</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,28 +10825,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>104.3976710547477</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>165.288912547068</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>47.21052606981299</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23466,13 +23466,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>2.335964134057178</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>60.78954900186376</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>69.44292146765784</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>105.074288727014</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>77.34114551720822</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>94.35543628911108</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696699</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>58.19598621064686</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>187.9191982808468</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>38.66491802903033</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>32.92037736870712</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>162.5760987035354</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>97.27712209079446</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.14213605696625</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>92.60691836965293</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>24.85874610612126</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>715719.8211196326</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>715719.8211196326</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>715719.8211196325</v>
+        <v>715719.8211196326</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>715719.8211196325</v>
+        <v>715719.8211196326</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>715719.8211196325</v>
+        <v>715719.8211196326</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312478</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312477</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
         <v>694893.1270522206</v>
@@ -26328,34 +26328,34 @@
         <v>694893.1270522206</v>
       </c>
       <c r="G2" t="n">
-        <v>694893.1270522204</v>
+        <v>694893.1270522206</v>
       </c>
       <c r="H2" t="n">
-        <v>694893.1270522204</v>
+        <v>694893.1270522207</v>
       </c>
       <c r="I2" t="n">
-        <v>694893.1270522206</v>
+        <v>694893.1270522207</v>
       </c>
       <c r="J2" t="n">
         <v>694893.1270522206</v>
       </c>
       <c r="K2" t="n">
-        <v>694893.1270522209</v>
+        <v>694893.1270522205</v>
       </c>
       <c r="L2" t="n">
+        <v>694893.1270522204</v>
+      </c>
+      <c r="M2" t="n">
         <v>694893.1270522206</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>694893.1270522205</v>
+      </c>
+      <c r="O2" t="n">
+        <v>694893.1270522205</v>
+      </c>
+      <c r="P2" t="n">
         <v>694893.1270522207</v>
-      </c>
-      <c r="N2" t="n">
-        <v>694893.1270522206</v>
-      </c>
-      <c r="O2" t="n">
-        <v>694893.1270522206</v>
-      </c>
-      <c r="P2" t="n">
-        <v>694893.1270522203</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,43 +26423,43 @@
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709183</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709182</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="F4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
+        <v>21619.60799709192</v>
+      </c>
+      <c r="K4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21619.60799709184</v>
+      </c>
+      <c r="O4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="P4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26499,7 +26499,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26508,7 +26508,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146622.0050391357</v>
+        <v>-146622.0050391354</v>
       </c>
       <c r="C6" t="n">
+        <v>443345.8741754087</v>
+      </c>
+      <c r="D6" t="n">
         <v>443345.8741754085</v>
       </c>
-      <c r="D6" t="n">
-        <v>443345.8741754086</v>
-      </c>
       <c r="E6" t="n">
-        <v>-150487.4131919916</v>
+        <v>-151159.3680942495</v>
       </c>
       <c r="F6" t="n">
-        <v>576890.0008014152</v>
+        <v>576218.0458991573</v>
       </c>
       <c r="G6" t="n">
-        <v>576890.0008014149</v>
+        <v>576218.0458991573</v>
       </c>
       <c r="H6" t="n">
-        <v>576890.0008014149</v>
+        <v>576218.0458991574</v>
       </c>
       <c r="I6" t="n">
-        <v>576890.0008014152</v>
+        <v>576218.0458991574</v>
       </c>
       <c r="J6" t="n">
-        <v>400466.7816088222</v>
+        <v>399794.8267065643</v>
       </c>
       <c r="K6" t="n">
-        <v>576890.0008014154</v>
+        <v>576218.0458991572</v>
       </c>
       <c r="L6" t="n">
-        <v>576890.0008014152</v>
+        <v>576218.0458991571</v>
       </c>
       <c r="M6" t="n">
-        <v>447247.6859624704</v>
+        <v>446575.7310602124</v>
       </c>
       <c r="N6" t="n">
-        <v>576890.0008014152</v>
+        <v>576218.0458991572</v>
       </c>
       <c r="O6" t="n">
-        <v>576890.0008014152</v>
+        <v>576218.0458991573</v>
       </c>
       <c r="P6" t="n">
-        <v>576890.0008014148</v>
+        <v>576218.0458991573</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>16.14845684064204</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>68.08019533676973</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>96.50703242634988</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.70334145380497</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>65.46088174732711</v>
       </c>
       <c r="X5" t="n">
-        <v>132.2758992500987</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>38.46332039683779</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>132.6012879633033</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>223.4517780970072</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>186.6421116003156</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31846,7 +31846,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
         <v>593.9283018233475</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32323,7 +32323,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32332,7 +32332,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,13 +35260,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M12" t="n">
         <v>451.7942679013292</v>
@@ -35649,10 +35649,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>866.0091179129988</v>
+        <v>743.6379293484354</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35661,7 +35661,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35670,7 +35670,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>404.727924322443</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>743.6379293484354</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35971,7 +35971,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -35980,7 +35980,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36135,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37320,16 +37320,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>713.9299079303039</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>559.9877854470799</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>713.9299079303039</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3293980.406574513</v>
+        <v>3297385.897698962</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>172.7538595767113</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>83.85112090809152</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>70.80276983270103</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>59.66385641544551</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>317.0595730545945</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>283.7800869700859</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>248.0596779397532</v>
+        <v>205.1478855987998</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>52.33159926298225</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>146.2793225814618</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.5430676348693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4025801238265</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1821,7 +1821,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>30.96411613815253</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>127.3165365479907</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>75.31209344666294</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102.4908346647291</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>215.027676378438</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292511</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>6.380068175847634</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>203.4068132192022</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>90.41948680756549</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873211</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T37" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.25588147840188</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>163.6898441249706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>77.31354443380475</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>261.3530920994916</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>209.567519332071</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.5099885583422</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="C2" t="n">
-        <v>159.5099885583422</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="D2" t="n">
-        <v>159.5099885583422</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="E2" t="n">
-        <v>159.5099885583422</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="F2" t="n">
-        <v>152.5644878091387</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>138.6410837477296</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>138.6410837477296</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>799.8716139843721</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940985</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117053</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F4" t="n">
-        <v>283.209303713795</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1108.378893121371</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>739.4163761809593</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>381.1506775742088</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>381.1506775742088</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>374.2051768250054</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>2355.473849053679</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.008090792599</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>1108.378893121371</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4658,31 +4658,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>222.8791647482714</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
         <v>74.81188663097703</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312743</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="9">
@@ -4892,10 +4892,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5020,22 +5020,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5047,13 +5047,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.0030950818858</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C13" t="n">
-        <v>558.0669121539789</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D13" t="n">
-        <v>558.0669121539789</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5229,22 +5229,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1736.744900323061</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.57685067423</v>
+        <v>1447.642033448704</v>
       </c>
       <c r="V13" t="n">
-        <v>1479.892362468343</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.475192431382</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X13" t="n">
-        <v>962.4856415333647</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y13" t="n">
-        <v>741.6930623898346</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5284,10 +5284,10 @@
         <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1521.86673817257</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2055.398642844495</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N14" t="n">
         <v>2602.177459903277</v>
@@ -5308,16 +5308,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5542,7 +5542,7 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
         <v>4461.783306331037</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>391.866433243363</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>391.866433243363</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>391.866433243363</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>391.866433243363</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>391.866433243363</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>224.1635966180819</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5718,7 +5718,7 @@
         <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998329</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5755,16 +5755,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5852,7 +5852,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5861,7 +5861,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5870,7 +5870,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>583.5523174165364</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C22" t="n">
-        <v>583.5523174165364</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>583.5523174165364</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>583.5523174165364</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>436.662369918626</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>268.959533293345</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5937,25 +5937,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1100.959038351514</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>811.5418683145538</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>583.5523174165364</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>583.5523174165364</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,7 +5974,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5986,7 +5986,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6065,16 +6065,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>578.4172407837245</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1674.827124689058</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1420.142636483171</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>1130.72546644621</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>902.7359155481931</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>681.943336404663</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="26">
@@ -6205,49 +6205,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551606</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.141533600157</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089242</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542187</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839441</v>
@@ -6384,10 +6384,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="29">
@@ -6445,46 +6445,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6654,19 +6654,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>481.6968904858347</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6706,46 +6706,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1364.144379432265</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6800,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6809,16 +6809,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1883.949150983575</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1629.264662777688</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1339.847492740728</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>1111.85794184271</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>891.0653626991802</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6916,73 +6916,73 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,7 +7122,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
         <v>1559.196154437386</v>
@@ -7150,58 +7150,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1172.647446689875</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2151.197749519704</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N38" t="n">
-        <v>3130.950021746351</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
         <v>4461.783306331037</v>
@@ -7210,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7508,16 +7508,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>414.613856788637</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1878.248976777628</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1589.146109903272</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208122</v>
+        <v>1334.461621697385</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838516</v>
+        <v>1045.044451660424</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858343</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423041</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="44">
@@ -7624,55 +7624,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946815</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7839,19 +7839,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1278.897944178337</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1024.21345597245</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>734.7962859354897</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>506.8067350374723</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.8067350374723</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8695,16 +8695,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8932,13 +8932,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>288.0478149561032</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476844</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,19 +10354,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>297.8289162490807</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,19 +10825,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>104.3976710547477</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>246.454569480844</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>295.4822118493972</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>165.288912547068</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23469,16 +23469,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.146369152342686</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>113.7908987761682</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>52.51544363394665</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>69.44292146765784</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>77.34114551720822</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>3.556976973656759</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,10 +24618,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>138.3749467384731</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>16.14213605696699</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>58.19598621064686</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25125,13 +25125,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T37" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>162.5760987035354</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.14213605696668</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>24.85874610612126</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>16.14213605696619</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>715719.8211196325</v>
+        <v>715719.8211196326</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>715719.8211196325</v>
+        <v>715719.8211196326</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>715719.8211196326</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>715719.8211196326</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>715719.8211196326</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312482</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312478</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312477</v>
-      </c>
       <c r="E2" t="n">
-        <v>694893.1270522206</v>
+        <v>694893.1270522205</v>
       </c>
       <c r="F2" t="n">
-        <v>694893.1270522206</v>
+        <v>694893.1270522207</v>
       </c>
       <c r="G2" t="n">
-        <v>694893.1270522206</v>
+        <v>694893.1270522205</v>
       </c>
       <c r="H2" t="n">
         <v>694893.1270522207</v>
       </c>
       <c r="I2" t="n">
-        <v>694893.1270522207</v>
+        <v>694893.1270522204</v>
       </c>
       <c r="J2" t="n">
+        <v>694893.1270522205</v>
+      </c>
+      <c r="K2" t="n">
+        <v>694893.1270522209</v>
+      </c>
+      <c r="L2" t="n">
         <v>694893.1270522206</v>
-      </c>
-      <c r="K2" t="n">
-        <v>694893.1270522205</v>
-      </c>
-      <c r="L2" t="n">
-        <v>694893.1270522204</v>
       </c>
       <c r="M2" t="n">
         <v>694893.1270522206</v>
       </c>
       <c r="N2" t="n">
-        <v>694893.1270522205</v>
+        <v>694893.1270522207</v>
       </c>
       <c r="O2" t="n">
         <v>694893.1270522205</v>
       </c>
       <c r="P2" t="n">
-        <v>694893.1270522207</v>
+        <v>694893.1270522202</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,43 +26423,43 @@
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="F4" t="n">
         <v>21619.60799709183</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>21619.60799709183</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709182</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709192</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="N4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="L4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.60799709184</v>
-      </c>
       <c r="O4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26499,19 +26499,19 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="M5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146622.0050391354</v>
+        <v>-146622.0050391358</v>
       </c>
       <c r="C6" t="n">
         <v>443345.8741754087</v>
       </c>
       <c r="D6" t="n">
-        <v>443345.8741754085</v>
+        <v>443345.874175409</v>
       </c>
       <c r="E6" t="n">
-        <v>-151159.3680942495</v>
+        <v>-150554.6086822175</v>
       </c>
       <c r="F6" t="n">
-        <v>576218.0458991573</v>
+        <v>576822.8053111895</v>
       </c>
       <c r="G6" t="n">
-        <v>576218.0458991573</v>
+        <v>576822.8053111893</v>
       </c>
       <c r="H6" t="n">
-        <v>576218.0458991574</v>
+        <v>576822.8053111895</v>
       </c>
       <c r="I6" t="n">
-        <v>576218.0458991574</v>
+        <v>576822.8053111891</v>
       </c>
       <c r="J6" t="n">
-        <v>399794.8267065643</v>
+        <v>400399.5861185964</v>
       </c>
       <c r="K6" t="n">
-        <v>576218.0458991572</v>
+        <v>576822.8053111896</v>
       </c>
       <c r="L6" t="n">
-        <v>576218.0458991571</v>
+        <v>576822.8053111894</v>
       </c>
       <c r="M6" t="n">
-        <v>446575.7310602124</v>
+        <v>447180.4904722447</v>
       </c>
       <c r="N6" t="n">
-        <v>576218.0458991572</v>
+        <v>576822.8053111895</v>
       </c>
       <c r="O6" t="n">
-        <v>576218.0458991573</v>
+        <v>576822.8053111893</v>
       </c>
       <c r="P6" t="n">
-        <v>576218.0458991573</v>
+        <v>576822.8053111889</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>234.1221861650002</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>68.08019533676973</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>96.50703242634988</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>96.72459696620047</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>65.46088174732711</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>38.46332039683779</v>
+        <v>81.37511273779117</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>330.4022424004983</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27903,22 +27903,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>223.4517780970072</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-4.926475458907758e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31846,7 +31846,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
         <v>593.9283018233475</v>
@@ -32089,7 +32089,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32332,10 +32332,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33754,10 +33754,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33991,10 +33991,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35415,7 +35415,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35494,7 +35494,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
         <v>451.7942679013292</v>
@@ -35652,13 +35652,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>743.6379293484354</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
@@ -35737,7 +35737,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359034</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>753.4190306414129</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>559.9877854470799</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>754.5075703690632</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>751.0723262417293</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
